--- a/data/cepea-consulta-açucar-santos.reparado.xlsx
+++ b/data/cepea-consulta-açucar-santos.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A05DB1-A41D-4CA4-B26F-D4AEE58A8551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{714F1F7A-D716-49C8-8517-E1CCF772BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1163">
   <si>
     <t>Açúcar | Indicador Açúcar Cristal - Santos (FOB)</t>
   </si>
@@ -3478,6 +3478,48 @@
   </si>
   <si>
     <t>124,46</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>22,90</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>124,50</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>124,41</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>123,55</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>122,02</t>
+  </si>
+  <si>
+    <t>22,35</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>120,03</t>
+  </si>
+  <si>
+    <t>22,24</t>
   </si>
 </sst>
 </file>
@@ -3929,10 +3971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420:C420"/>
+      <selection activeCell="A426" sqref="A426:C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8557,6 +8599,72 @@
       </c>
       <c r="C420" s="3" t="s">
         <v>985</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>1162</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-açucar-santos.reparado.xlsx
+++ b/data/cepea-consulta-açucar-santos.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FA3049-0163-4A33-A8AB-8FA0FD1D7A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96777B2F-0634-4F0A-A6EA-BB8F3B8770FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1191">
   <si>
     <t>Açúcar | Indicador Açúcar Cristal - Santos (FOB)</t>
   </si>
@@ -3559,6 +3559,51 @@
   </si>
   <si>
     <t>120,47</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>120,89</t>
+  </si>
+  <si>
+    <t>22,72</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>120,12</t>
+  </si>
+  <si>
+    <t>22,62</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>117,93</t>
+  </si>
+  <si>
+    <t>22,25</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>117,04</t>
+  </si>
+  <si>
+    <t>22,08</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>118,03</t>
+  </si>
+  <si>
+    <t>22,15</t>
   </si>
 </sst>
 </file>
@@ -4010,10 +4055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J431"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:C431"/>
+      <selection activeCell="A436" sqref="A436:C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8759,6 +8804,61 @@
       </c>
       <c r="C431" s="3" t="s">
         <v>1003</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>1190</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-açucar-santos.reparado.xlsx
+++ b/data/cepea-consulta-açucar-santos.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96777B2F-0634-4F0A-A6EA-BB8F3B8770FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3BE353-3A5C-4FAE-B8F9-1DB9F1BA6028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>

--- a/data/cepea-consulta-açucar-santos.reparado.xlsx
+++ b/data/cepea-consulta-açucar-santos.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3BE353-3A5C-4FAE-B8F9-1DB9F1BA6028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9846115-72E6-471F-917A-FA445C2CB94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
